--- a/biology/Microbiologie/Vallacertaceae/Vallacertaceae.xlsx
+++ b/biology/Microbiologie/Vallacertaceae/Vallacertaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vallacertaceae sont une famille fossile d'algues unicellulaires de l'ordre des Dictyochales. Le genre type Vallacerta se trouve dans les couches géologiques du Crétacé supérieur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vallacertaceae sont une famille fossile d'algues unicellulaires de l'ordre des Dictyochales. Le genre type Vallacerta se trouve dans les couches géologiques du Crétacé supérieur.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Vallacerta †.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le squelette de Vallacerta comporte un encadrement de cinq côtés et une épine radiale à chaque coin du cadre, lequel est rempli d'une fine plaque ponctuée de silice hyaline[1].
-Hanna rapproche leur squelette de celui de certaines diatomées quand il déclare que « la sculpture sur le disque est fortement évocatrice de celle trouvée sur certaines formes simples de diatomées, ce qui conduit à croire qu'il pourrait s'agir d'un des liens entre les deux groupes d'organismes. Cependant la structure le rapproche manifestement (le Vallacerta) avec les Silicoflagellés plutôt qu'avec les Diatomées »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le squelette de Vallacerta comporte un encadrement de cinq côtés et une épine radiale à chaque coin du cadre, lequel est rempli d'une fine plaque ponctuée de silice hyaline.
+Hanna rapproche leur squelette de celui de certaines diatomées quand il déclare que « la sculpture sur le disque est fortement évocatrice de celle trouvée sur certaines formes simples de diatomées, ce qui conduit à croire qu'il pourrait s'agir d'un des liens entre les deux groupes d'organismes. Cependant la structure le rapproche manifestement (le Vallacerta) avec les Silicoflagellés plutôt qu'avec les Diatomées ».
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>†Vallacerta Hanna, 1928[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>†Vallacerta Hanna, 1928
 †Vallacerta hortoni, 1928 [note 1]</t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille a été décrite en 1950 par le naturaliste français Georges Deflandre. L'IRMNG  (8 février 2022)[3] synonymise les Vallacertaceae avec les Dictyochaceae Wallich, 1865.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille a été décrite en 1950 par le naturaliste français Georges Deflandre. L'IRMNG  (8 février 2022) synonymise les Vallacertaceae avec les Dictyochaceae Wallich, 1865.
 </t>
         </is>
       </c>
